--- a/sharedata/exceldata/excel/all/Y-月卡终身卡.xlsx
+++ b/sharedata/exceldata/excel/all/Y-月卡终身卡.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\excel\all\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="12216"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="月卡终身卡" sheetId="10" r:id="rId1"/>
     <sheet name="月卡类型" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>备注信息</t>
   </si>
@@ -55,6 +50,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>AppStore商品ID</t>
+  </si>
+  <si>
     <t>MonthlyCardData</t>
   </si>
   <si>
@@ -82,6 +80,12 @@
     <t>item_id</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>product_id_appstore</t>
+  </si>
+  <si>
     <t>字段类型</t>
   </si>
   <si>
@@ -115,9 +119,15 @@
     <t>月卡</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
@@ -130,18 +140,30 @@
     <t>月卡描述</t>
   </si>
   <si>
+    <t>daheng_ios_month_28</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>终身卡</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
+    <t>1500</t>
+  </si>
+  <si>
     <t>终身卡描述</t>
   </si>
   <si>
+    <t>daheng_ios_month_198</t>
+  </si>
+  <si>
     <t>增删改请通知程序</t>
   </si>
   <si>
@@ -155,32 +177,19 @@
   </si>
   <si>
     <t>$uniq$no_empty</t>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -190,7 +199,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +206,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -206,21 +213,146 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,68 +360,78 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,13 +440,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,8 +594,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -413,6 +765,130 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -428,122 +904,331 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="60" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="60" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="60" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="1表头" xfId="7"/>
-    <cellStyle name="2填表文本" xfId="8"/>
-    <cellStyle name="表头" xfId="11"/>
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="常规 2 2" xfId="9"/>
-    <cellStyle name="常规 3" xfId="14"/>
-    <cellStyle name="常规 3 2" xfId="5"/>
-    <cellStyle name="常规 3 3" xfId="10"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 5" xfId="3"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 7" xfId="13"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="适中 2" xfId="12"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="表头" xfId="26"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="普通数值" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="2填表文本" xfId="42"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="44"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="1表头" xfId="46"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="常规 3 3" xfId="49"/>
+    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="51"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="55"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="56" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="57" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="58"/>
+    <cellStyle name="常规 3" xfId="59"/>
+    <cellStyle name="常规 4" xfId="60"/>
+    <cellStyle name="常规 5" xfId="61"/>
+    <cellStyle name="常规 7" xfId="62"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -830,368 +1515,387 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.2" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.2" style="1" customWidth="1"/>
+    <col min="8" max="10" width="23.2" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+    <row r="1" spans="1:10">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="L3" s="21" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>49</v>
+      <c r="J4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>22</v>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="19" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="H8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" s="8"/>
+    <row r="9" spans="12:12">
+      <c r="L9" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
+      <c r="C3" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="8"/>
+    <row r="9" customHeight="1" spans="5:5">
+      <c r="E9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>